--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Columna</t>
   </si>
@@ -103,15 +103,6 @@
     <t>Elaborado por: Alexander Suárez León y Stivens Rincon Moreno</t>
   </si>
   <si>
-    <t>Como jugador, necesito solicitar una reserva de una cancha en cierta hora de franjas las libres de la cancha Freestyle, con la finalidad de obtener una tarifa más economica.</t>
-  </si>
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sprint 2</t>
-  </si>
-  <si>
     <t>PBI: product backlog items</t>
   </si>
   <si>
@@ -130,14 +121,100 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>DiseñoBD</t>
+    <t>HU01</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como jugador,ver un formulario para selección de horas y cancha de las franjas libre.
+Para continuar con el proceso de reserva de una hora en franjas libres.
+</t>
+  </si>
+  <si>
+    <t>Ver Franjas libres</t>
+  </si>
+  <si>
+    <t>4 días</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Debido a problemas con la ejecución del servicio de peticiones no se pudo avanzar.</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>Como desarrolladores, necesitamos realizar el diseño del modelo para la solución del problema de franjas libres.</t>
+  </si>
+  <si>
+    <t>Diseño Bd</t>
+  </si>
+  <si>
+    <t>RNF01</t>
+  </si>
+  <si>
+    <t>RF01</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>Se definio en una sola tabla para las peticiones en una sola cancha para mantener la entrega de forma recurso minmo viable.</t>
+  </si>
+  <si>
+    <t>Como un desarrollador necesito crear el servicio Spring io en jar, con la finalidad de ajustar todas las aplicaciones y servicios de la aplicación de servidor.</t>
+  </si>
+  <si>
+    <t>aplicacion servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un jugador, necesito reservar una cancha en un puesto en una hora de las franjas libres de las canchas de Futbol 5 de FreeStyle, para obtener una tarifa reducida en este horario, y  Para guardar mi reserva de la cancha junto a otros jugadores.
+</t>
+  </si>
+  <si>
+    <t>reservar puesto en franja libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ver Reservas de las canchas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como administrador, necesito ver las reservas de las canchas en la hora definida, para ver las franjas con el cupo completo.</t>
+  </si>
+  <si>
+    <t>2 semanas</t>
+  </si>
+  <si>
+    <t>1 semana</t>
+  </si>
+  <si>
+    <t>Como desarrolladores y encargados de pruebas se debe realizar las pruebas de las aplicaciones desarrolladas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como jugador,ver los horarios mediante la selección de horas y cancha de las franjas libre.
+Para continuar con el proceso de reserva de una hora en franjas libres.
+</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +253,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,10 +325,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -252,14 +337,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,13 +390,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3832860</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -738,253 +844,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="5.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="1">
     <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -997,26 +1083,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="5"/>
+    <col min="1" max="1" width="1.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="86" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1029,66 +1115,66 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
